--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H2">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I2">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J2">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3761913312465</v>
+        <v>2.659027801768</v>
       </c>
       <c r="R2">
-        <v>1.504765324986</v>
+        <v>10.636111207072</v>
       </c>
       <c r="S2">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="T2">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>95.837189</v>
       </c>
       <c r="I3">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J3">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4833548627215</v>
+        <v>1.044880925937333</v>
       </c>
       <c r="R3">
-        <v>2.900129176329</v>
+        <v>6.269285555624</v>
       </c>
       <c r="S3">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="T3">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H4">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I4">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J4">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.449684858006</v>
+        <v>1.733038656890667</v>
       </c>
       <c r="R4">
-        <v>8.698109148036</v>
+        <v>10.398231941344</v>
       </c>
       <c r="S4">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="T4">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H5">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I5">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J5">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.20324220395325</v>
+        <v>0.41876763799</v>
       </c>
       <c r="R5">
-        <v>0.812968815813</v>
+        <v>1.67507055196</v>
       </c>
       <c r="S5">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="T5">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H6">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I6">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J6">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.6225830103185001</v>
+        <v>0.989472472768</v>
       </c>
       <c r="R6">
-        <v>3.735498061911</v>
+        <v>5.936834836608</v>
       </c>
       <c r="S6">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="T6">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H7">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I7">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J7">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.341972180164</v>
+        <v>5.892201434392001</v>
       </c>
       <c r="R7">
-        <v>8.051833080984002</v>
+        <v>35.35320860635201</v>
       </c>
       <c r="S7">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="T7">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
     </row>
   </sheetData>
